--- a/Template Format/Paymentaprovallist.xlsx
+++ b/Template Format/Paymentaprovallist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Maketting\Template Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7D5AC5-2D5A-435C-9817-4346300FF043}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FB718F-AB46-4476-BFDD-8E0A0C49E104}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{B076210F-32EF-4F7F-822D-FADDE1770F9D}"/>
   </bookViews>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50722D2C-70A4-4F1C-9215-1EC52B5A6B0F}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Template Format/Paymentaprovallist.xlsx
+++ b/Template Format/Paymentaprovallist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Maketting\Template Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FB718F-AB46-4476-BFDD-8E0A0C49E104}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACB59DD-2838-48FE-83B2-0FD33D251A35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{B076210F-32EF-4F7F-822D-FADDE1770F9D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>PHU VIET HUNG</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>CustomerAddress</t>
+  </si>
+  <si>
+    <t>Dai Thành</t>
+  </si>
+  <si>
+    <t>Duyen thai</t>
   </si>
 </sst>
 </file>
@@ -632,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50722D2C-70A4-4F1C-9215-1EC52B5A6B0F}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1067,6 +1073,20 @@
         <v>57000000</v>
       </c>
     </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>7903</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5">
+        <v>30000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
